--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2186839.317113966</v>
+        <v>2262368.986778772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665973</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>219.3573038660099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>301.0683539834542</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -786,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.62476678787716</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1719908535469</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>242.0357154547281</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.2075379833797</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2283493582089</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>297.6715496509539</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.84879889140051</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.25846416622943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185836</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>140.5678108961647</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037968</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>159.2830655961208</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>31.94750572241315</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>67.28672596789947</v>
       </c>
       <c r="U25" t="n">
-        <v>11.77373557727621</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206735</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>129.4106056624372</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>51.58305668750777</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113188</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497918</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6519788371599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>75.06705067830629</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>103.4286568439259</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>113.663532329397</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182173</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H37" t="n">
-        <v>50.59638802949773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>110.8114120132043</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>8.627084658457184</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>103.0719375076614</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>173.6793845477821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1970.914677487028</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>1970.914677487028</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>358.0524302885</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4425,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>160.836644422803</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>456.3840257941342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>456.3840257941342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>1666.627443976281</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.649772640952</v>
+        <v>1666.627443976281</v>
       </c>
       <c r="E5" t="n">
-        <v>747.8615200427075</v>
+        <v>1280.839191378037</v>
       </c>
       <c r="F5" t="n">
-        <v>336.8756152531</v>
+        <v>869.8532865884295</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>451.8894784866163</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1534.318342165211</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1534.318342165211</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1176.052643558461</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205145</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229333</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4886,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.9013233152508</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C10" t="n">
-        <v>144.9013233152508</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D10" t="n">
-        <v>144.9013233152508</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>144.9013233152508</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>144.9013233152508</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>144.9013233152508</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>144.9013233152508</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.9013233152508</v>
+        <v>386.0450565669176</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5020,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5136,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.2646934632137</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="D16" t="n">
         <v>822.1480540508779</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="W16" t="n">
-        <v>972.2646934632137</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="X16" t="n">
-        <v>972.2646934632137</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="Y16" t="n">
-        <v>972.2646934632137</v>
+        <v>964.1357418247817</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,28 +5582,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.3431626812493</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>574.4069797533424</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>424.2903403410066</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>276.3772467586135</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>129.4872992607032</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>129.4872992607032</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>129.4872992607032</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5692,31 +5694,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119721</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035274</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247794</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247794</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247794</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.3431626812493</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.193495155475</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1430.949880691337</v>
       </c>
       <c r="U25" t="n">
-        <v>1263.238193148139</v>
+        <v>1141.821241904895</v>
       </c>
       <c r="V25" t="n">
-        <v>1263.238193148139</v>
+        <v>887.1367536990085</v>
       </c>
       <c r="W25" t="n">
-        <v>973.8210231111786</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="X25" t="n">
-        <v>745.8314722131613</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.8314722131613</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550593</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610182</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6214,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514064</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619122</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465292</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121721</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851607</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590527</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614715</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690725</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409598</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748347</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742891</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769776</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373961</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805649</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098432</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250794</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095306</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800177</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281731</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164458</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698571</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098059</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021837</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641224</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409481</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681279</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475747</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710793</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764.9211061669174</v>
+        <v>4203.729040834628</v>
       </c>
       <c r="C28" t="n">
-        <v>764.9211061669174</v>
+        <v>4034.792857906721</v>
       </c>
       <c r="D28" t="n">
-        <v>614.8044667545817</v>
+        <v>3884.676218494385</v>
       </c>
       <c r="E28" t="n">
-        <v>614.8044667545817</v>
+        <v>3736.763124911992</v>
       </c>
       <c r="F28" t="n">
-        <v>467.9145192566713</v>
+        <v>3589.873177414082</v>
       </c>
       <c r="G28" t="n">
-        <v>299.7391975764918</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="H28" t="n">
-        <v>149.3211891244351</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.53808638058</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625192</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.43553563632</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403503</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.54638743105</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436447</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042129</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>4606.170084808397</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>4606.170084808397</v>
       </c>
       <c r="X28" t="n">
-        <v>985.7136853104475</v>
+        <v>4606.170084808397</v>
       </c>
       <c r="Y28" t="n">
-        <v>764.9211061669174</v>
+        <v>4385.377505664867</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805481</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619122</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701551</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619893</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.76077344195</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.623401105982</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.53808638058</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625192</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.43553563632</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403503</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.54638743105</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436447</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042129</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576109</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491661</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4474.0341557762</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4184.905516989758</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>3930.221028783871</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>3640.80385874691</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>3640.80385874691</v>
       </c>
       <c r="Y31" t="n">
-        <v>221.1079791745888</v>
+        <v>3640.80385874691</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.8019868198124</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>369.8658038919056</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8658038919056</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8658038919056</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>369.8658038919056</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6904822117262</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247833</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383415</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X34" t="n">
-        <v>720.4504516500522</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y34" t="n">
-        <v>720.4504516500522</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.8250614170374</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>557.8888784891305</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>407.7722390767898</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E37" t="n">
-        <v>259.8591454943967</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F37" t="n">
-        <v>259.8591454943967</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G37" t="n">
-        <v>259.8591454943967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7138,7 +7140,7 @@
         <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170374</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>320.6824020435953</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>320.6824020435953</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>320.6824020435953</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X40" t="n">
-        <v>1432.107328986838</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y40" t="n">
-        <v>1211.314749843308</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.3109288932103</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3747459653034</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529677</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1283.728098930171</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1283.728098930171</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1283.728098930171</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1283.728098930171</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>994.3109288932103</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>994.3109288932103</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>994.3109288932103</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,22 +7672,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7807,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>844.0280401273991</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776803</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.03744927815245</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814716</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890447</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.047662122047655</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2399327404702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>78.47173974185884</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>154.2608350904898</v>
       </c>
       <c r="U25" t="n">
-        <v>274.4636168213011</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>37.08296280094035</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>58.83618877676421</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.180212146020494e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.18000134477735</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>146.480510380083</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>45.48517152361022</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>138.474110994431</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H37" t="n">
-        <v>98.31744033803839</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>38.10241635433182</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365983</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2867437090789</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>94.84887247594183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>52.030270841255</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015049</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.2306459065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925912</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338381</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007381</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007528</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.73165600792</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007489</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007507</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007402</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007381</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007382</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007446</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871646</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871646</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354834</v>
+        <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
         <v>323427.0678790606</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790606</v>
+        <v>323427.0678790607</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571334</v>
+        <v>-97174.86343571289</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411827</v>
+        <v>427985.1730411829</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.173041183</v>
+        <v>427985.1730411829</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411829</v>
+        <v>427985.1730411828</v>
       </c>
       <c r="I6" t="n">
         <v>427985.173041183</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485901</v>
+        <v>251561.953848591</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.1730411831</v>
+        <v>427985.1730411825</v>
       </c>
       <c r="L6" t="n">
+        <v>427985.1730411829</v>
+      </c>
+      <c r="M6" t="n">
+        <v>293184.1578073449</v>
+      </c>
+      <c r="N6" t="n">
+        <v>427985.1730411832</v>
+      </c>
+      <c r="O6" t="n">
+        <v>427985.1730411832</v>
+      </c>
+      <c r="P6" t="n">
         <v>427985.173041183</v>
-      </c>
-      <c r="M6" t="n">
-        <v>293184.1578073459</v>
-      </c>
-      <c r="N6" t="n">
-        <v>427985.1730411827</v>
-      </c>
-      <c r="O6" t="n">
-        <v>427985.1730411829</v>
-      </c>
-      <c r="P6" t="n">
-        <v>427985.1730411829</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3.403531952023743e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545536</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.3257377546731</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.7158160373407</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>74.34085500446108</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.25436541380077</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>285.6121791672481</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>81.88705730962909</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88668742006655</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.37711536871507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>91.70202071405288</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>88.56638900509972</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>90.11682290093772</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.2645341703616</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28530,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29278,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.492850949754938e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718681</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092042</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490634</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>345.295154234176</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341714</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262368.986778772</v>
+        <v>2255351.97188706</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665973</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0683539834542</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63.10802839794318</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>59.43262708185689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62476678787716</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>242.0357154547281</v>
+        <v>117.3399053404223</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>77.72878559814581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>323.1973192220556</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.6715496509539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23.25846416622943</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185836</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>140.5678108961647</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037968</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>67.28672596789947</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206735</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014456</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>129.4106056624372</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.467071307535848</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497918</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014456</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>75.06705067830629</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>113.663532329397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>110.8114120132043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>8.627084658457184</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.61855700348161</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>210.0877336961557</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.054803223514</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1513.092286283102</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.826587676352</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>769.0383350781076</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F2" t="n">
-        <v>358.0524302885</v>
+        <v>689.1182491573336</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>271.1544410555205</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,34 +4406,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.7728273507099</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>160.836644422803</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>160.836644422803</v>
+        <v>429.8656862282827</v>
       </c>
       <c r="E4" t="n">
-        <v>160.836644422803</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>160.836644422803</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>160.836644422803</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>160.836644422803</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.7728273507099</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2035.589960916693</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1666.627443976281</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.627443976281</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>1280.839191378037</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="F5" t="n">
-        <v>869.8532865884295</v>
+        <v>743.8979228366054</v>
       </c>
       <c r="G5" t="n">
-        <v>451.8894784866163</v>
+        <v>325.9341147347923</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>2035.589960916693</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
         <v>2317.834075963124</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,22 +5223,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028583</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247817</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>964.1357418247817</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035276</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247817</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247817</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247817</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247817</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247817</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247817</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5539,13 +5539,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1430.949880691337</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1141.821241904895</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>887.1367536990085</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>597.7195836620479</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>597.7195836620479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550593</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610182</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514064</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619122</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643317</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899119</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207821</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014284</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141858</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465292</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121721</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851607</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590527</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614715</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690725</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409598</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748347</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742891</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769776</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373961</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805649</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098432</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250794</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095306</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800177</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281731</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164458</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698571</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014284</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014284</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098059</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021837</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641224</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409481</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681279</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475747</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710793</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4203.729040834628</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C28" t="n">
-        <v>4034.792857906721</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D28" t="n">
-        <v>3884.676218494385</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="E28" t="n">
-        <v>3736.763124911992</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="F28" t="n">
-        <v>3589.873177414082</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916671</v>
+        <v>252.1472931522777</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916671</v>
+        <v>101.729284700221</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.53808638058</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.43553563632</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403503</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.54638743105</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436447</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042129</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014284</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014284</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014284</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014284</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014284</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808397</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>4606.170084808397</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X28" t="n">
-        <v>4606.170084808397</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y28" t="n">
-        <v>4385.377505664867</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619122</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643317</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899119</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207821</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014284</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141858</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.708168625643</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701551</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619893</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.76077344195</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.623401105982</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324678</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.53808638058</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.43553563632</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403503</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.54638743105</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436447</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042129</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014284</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576109</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491661</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4474.0341557762</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4184.905516989758</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>3930.221028783871</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3640.80385874691</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>3640.80385874691</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>3640.80385874691</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247833</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383415</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>560.1954542207687</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>560.1954542207687</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X34" t="n">
-        <v>560.1954542207687</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>320.6824020435953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.6824020435953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>320.6824020435953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,34 +7402,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>256.0479578003561</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="C43" t="n">
-        <v>256.0479578003561</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="D43" t="n">
-        <v>105.9313183880204</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="E43" t="n">
-        <v>105.9313183880204</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F43" t="n">
-        <v>105.9313183880204</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G43" t="n">
-        <v>105.9313183880204</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="Y43" t="n">
-        <v>437.6964226305959</v>
+        <v>671.7300455988213</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1286.706438541584</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983211</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776803</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544524</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927815245</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544524</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928411</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871788</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>8.047662122047655</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>154.2608350904898</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>37.08296280094035</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.180212146020494e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>146.480510380083</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>138.474110994431</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>38.10241635433182</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2867437090789</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.0910983855555</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>76.14961870242169</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015049</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459065</v>
-      </c>
       <c r="K2" t="n">
-        <v>527889.2306459064</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925912</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338381</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.73165600792</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007489</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007507</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007486</v>
       </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,31 +26481,31 @@
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871646</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871646</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354837</v>
+        <v>-266540.8113354839</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790606</v>
+        <v>323427.0678790605</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790607</v>
+        <v>323427.067879061</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571289</v>
+        <v>-98149.45469543476</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411828</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.953848591</v>
+        <v>250587.3625888684</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.1730411825</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="M6" t="n">
-        <v>293184.1578073449</v>
+        <v>292209.5665476241</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.581781461</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814611</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,16 +26758,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540986</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540986</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.403531952023743e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545536</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7158160373407</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>260.8147443664139</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>87.00133556471228</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>74.34085500446108</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>81.88705730962909</v>
+        <v>206.5828674239349</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.88668742006655</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>59.53652244142501</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.56638900509972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>263.2645341703616</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29280,13 +29280,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.492850949754938e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961198</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565507</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540874</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104634</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127052</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358977</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458542</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361475</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298621</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337656</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892232</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351798</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961198</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565507</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540874</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104634</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127052</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358977</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458542</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361475</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298621</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337656</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892232</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351798</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>213.3700978777713</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415073</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095146</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349768</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560235</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980119</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411073</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092042</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556532</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206024</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718745</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415073</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095146</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349768</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490634</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.295154234176</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980119</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411073</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714611</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556532</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206024</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718745</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221192</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37560,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255351.97188706</v>
+        <v>2260291.234736092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>295.568361330683</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>63.10802839794318</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.18571673942406</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>59.43262708185689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>321.5296920684223</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>117.3399053404223</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.1973192220556</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>214.055239661722</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>194.321017352498</v>
       </c>
     </row>
     <row r="14">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>49.21182350370111</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.467071307535848</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>12.45256965056616</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>256.3190686933505</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
-        <v>82.61855700348161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>210.0877336961557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>689.1182491573336</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>271.1544410555205</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4342,40 +4342,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406185</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>429.8656862282827</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626213</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>743.8979228366054</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>325.9341147347923</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>764.7444956504003</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>764.7444956504003</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>764.7444956504003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>764.7444956504003</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>764.7444956504003</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>474.7746905116418</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1028.859951698067</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>724.0866058228858</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.207357927901</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1449.207357927901</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1449.207357927901</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1160.078719141459</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>370.8829324483097</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>202.7076107681303</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>202.7076107681303</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1348.33044553573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,25 +6001,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>252.1472931522777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>101.729284700221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336712</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,13 +7359,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>755.183133481126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1286.706438541584</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1032.021950335697</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>742.6047802987359</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>742.6047802987359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.6047802987359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62.79465928983211</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>24.26363599959677</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>113.0824928447106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.75252890009169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>5.98363134950597</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>48.84084321165253</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>105.9521741567361</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>213.257085738471</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>29.91828370522688</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
-        <v>143.0910983855555</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>76.14961870242169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="F2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354839</v>
+        <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790605</v>
+        <v>323427.0678790609</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.067879061</v>
+        <v>323427.0678790607</v>
       </c>
       <c r="E6" t="n">
-        <v>-98149.45469543476</v>
+        <v>-97272.3225616853</v>
       </c>
       <c r="F6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="G6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="H6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="I6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="J6" t="n">
-        <v>250587.3625888684</v>
+        <v>251464.4947226181</v>
       </c>
       <c r="K6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="L6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="M6" t="n">
-        <v>292209.5665476241</v>
+        <v>293086.6986813736</v>
       </c>
       <c r="N6" t="n">
-        <v>427010.581781461</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="O6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="P6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152106</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>260.8147443664139</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>116.0611043592038</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>87.00133556471228</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>206.5828674239349</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.8578157762261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.53652244142501</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>192.8208060799894</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>213.3700978777713</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35509,10 +35509,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>71.38553859468891</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>408.2698052695489</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
